--- a/config_6.8/act_042_xshb_config.xlsx
+++ b/config_6.8/act_042_xshb_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>index|序列</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>终身3次</t>
+  </si>
+  <si>
+    <t>shop_bay,"jing_bi",</t>
   </si>
   <si>
     <t>0.5元奖励金</t>
@@ -171,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -178,58 +189,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -240,29 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -273,7 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,26 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,13 +331,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +469,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,157 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,6 +536,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +597,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -610,15 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,151 +630,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,9 +816,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1236,13 +1236,13 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="1">
@@ -1272,13 +1272,13 @@
       <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="1">
@@ -1308,13 +1308,13 @@
       <c r="H4" s="4">
         <v>3</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="1">
@@ -1344,13 +1344,13 @@
       <c r="H5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="1">
@@ -1380,10 +1380,10 @@
       <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16" t="s">
-        <v>18</v>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1394,30 +1394,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
         <v>1000664</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4">
         <v>6</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16" t="s">
-        <v>18</v>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1432,9 +1432,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="9"/>
@@ -1445,10 +1445,10 @@
       <c r="F9" s="11"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
       <c r="A10" s="9"/>
@@ -1459,10 +1459,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="4"/>
@@ -1473,9 +1473,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="13"/>

--- a/config_6.8/act_042_xshb_config.xlsx
+++ b/config_6.8/act_042_xshb_config.xlsx
@@ -133,7 +133,7 @@
     <t>携带金币20万</t>
   </si>
   <si>
-    <t>step_task_show_not</t>
+    <t>actp_own_task_p_show_not</t>
   </si>
   <si>
     <t>终身1次</t>
@@ -145,11 +145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,58 +159,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,30 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -261,21 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -292,8 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +291,27 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -335,19 +328,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,163 +436,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,17 +522,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,20 +580,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +596,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,151 +627,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,61 +781,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1174,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1239,26 +1223,26 @@
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7">
-        <v>21578</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4">
+        <v>1000659</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="1">
@@ -1275,26 +1259,26 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7">
-        <v>21579</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="4">
+        <v>1000660</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="1">
@@ -1308,13 +1292,13 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10">
-        <v>21580</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="4">
+        <v>1000661</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="5"/>
@@ -1324,13 +1308,13 @@
       <c r="H4" s="4">
         <v>3</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="1">
@@ -1347,26 +1331,26 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7">
-        <v>21581</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="4">
+        <v>1000662</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="1">
@@ -1383,22 +1367,22 @@
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7">
-        <v>21582</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4">
+        <v>1000663</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="1">
@@ -1415,10 +1399,10 @@
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
-        <v>21583</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="4">
+        <v>1000664</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -1430,9 +1414,9 @@
       <c r="H7" s="4">
         <v>6</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="1">
@@ -1445,93 +1429,93 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
